--- a/PWL_POS_PT2/public/template_stok.xlsx
+++ b/PWL_POS_PT2/public/template_stok.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Lelyta2AWebLanjut\Minggu 8\PWL_POS\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Lelyta2AWebLanjut\PWL_POS_PT2\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE63C6F-AF5D-4ECA-B8DC-6D905C166BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910DAA28-D6D5-4B09-BFF0-17A53DFCE5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB2B673B-8AAA-4EC8-91D2-34E648AA5998}"/>
   </bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,16 +427,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>45756</v>
+        <v>45760.600694444445</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
